--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/169.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/3_fold/169.xlsx
@@ -479,13 +479,13 @@
         <v>-7.777921863298202</v>
       </c>
       <c r="E2" t="n">
-        <v>-13.38626703127044</v>
+        <v>-13.34417527763429</v>
       </c>
       <c r="F2" t="n">
-        <v>-1.624063604446686</v>
+        <v>-1.65579934653503</v>
       </c>
       <c r="G2" t="n">
-        <v>-10.49240987264951</v>
+        <v>-10.42884674235293</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-7.772162670085144</v>
       </c>
       <c r="E3" t="n">
-        <v>-13.72216315297776</v>
+        <v>-13.6819828755565</v>
       </c>
       <c r="F3" t="n">
-        <v>-1.45123211463306</v>
+        <v>-1.485193548204497</v>
       </c>
       <c r="G3" t="n">
-        <v>-10.40886788821646</v>
+        <v>-10.34398243533287</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-7.801540116456979</v>
       </c>
       <c r="E4" t="n">
-        <v>-14.32469711435968</v>
+        <v>-14.29356361820205</v>
       </c>
       <c r="F4" t="n">
-        <v>-1.294032834412455</v>
+        <v>-1.32532343820418</v>
       </c>
       <c r="G4" t="n">
-        <v>-10.10826861497043</v>
+        <v>-10.04733703754504</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-7.847011567293449</v>
       </c>
       <c r="E5" t="n">
-        <v>-14.99583474263224</v>
+        <v>-14.97133904401537</v>
       </c>
       <c r="F5" t="n">
-        <v>-1.264352583870262</v>
+        <v>-1.297580848482563</v>
       </c>
       <c r="G5" t="n">
-        <v>-10.13170383705712</v>
+        <v>-10.07526291950644</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-7.885668269767497</v>
       </c>
       <c r="E6" t="n">
-        <v>-15.65941811216512</v>
+        <v>-15.63886319670361</v>
       </c>
       <c r="F6" t="n">
-        <v>-1.034779053540595</v>
+        <v>-1.066842103199982</v>
       </c>
       <c r="G6" t="n">
-        <v>-9.688162801385124</v>
+        <v>-9.629771130711026</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-7.890597696443507</v>
       </c>
       <c r="E7" t="n">
-        <v>-16.41284086379794</v>
+        <v>-16.39249542518189</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.9669478325176126</v>
+        <v>-0.9988144976343738</v>
       </c>
       <c r="G7" t="n">
-        <v>-9.580805918082969</v>
+        <v>-9.524666123497649</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-7.83872197046065</v>
       </c>
       <c r="E8" t="n">
-        <v>-17.09060319730841</v>
+        <v>-17.07360938821985</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.8171849803111081</v>
+        <v>-0.8494051376045959</v>
       </c>
       <c r="G8" t="n">
-        <v>-9.086191809025401</v>
+        <v>-9.02565300068526</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-7.711744714602726</v>
       </c>
       <c r="E9" t="n">
-        <v>-17.91839022908222</v>
+        <v>-17.90409343437906</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.8332230512922225</v>
+        <v>-0.8640161475759622</v>
       </c>
       <c r="G9" t="n">
-        <v>-8.886638929111813</v>
+        <v>-8.822787768152715</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-7.49773874336887</v>
       </c>
       <c r="E10" t="n">
-        <v>-18.56102591406835</v>
+        <v>-18.55036877955518</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.7218730156233423</v>
+        <v>-0.7578375715295638</v>
       </c>
       <c r="G10" t="n">
-        <v>-8.579454227536393</v>
+        <v>-8.514241467081757</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-7.199254314868178</v>
       </c>
       <c r="E11" t="n">
-        <v>-19.22633746757634</v>
+        <v>-19.21626948669105</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.4964104683859777</v>
+        <v>-0.5331081932513358</v>
       </c>
       <c r="G11" t="n">
-        <v>-8.222662790493674</v>
+        <v>-8.157738060701554</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-6.828370830280984</v>
       </c>
       <c r="E12" t="n">
-        <v>-19.84411086946603</v>
+        <v>-19.83435710384894</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.7218599233205005</v>
+        <v>-0.7617521700792399</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.696823539158588</v>
+        <v>-7.63327350116485</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>-6.408661352906917</v>
       </c>
       <c r="E13" t="n">
-        <v>-20.69915607575631</v>
+        <v>-20.69424646219067</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.4617944196724539</v>
+        <v>-0.4980993754525603</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.06728015701419</v>
+        <v>-7.002263781102179</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>-5.97898977896209</v>
       </c>
       <c r="E14" t="n">
-        <v>-21.41987425489049</v>
+        <v>-21.41162610410021</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.2645065081504838</v>
+        <v>-0.3031811707449427</v>
       </c>
       <c r="G14" t="n">
-        <v>-6.800891071093591</v>
+        <v>-6.737799263699312</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>-5.580449431025203</v>
       </c>
       <c r="E15" t="n">
-        <v>-22.27921373651287</v>
+        <v>-22.27113578565952</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.1189855620646986</v>
+        <v>-0.1605143466786537</v>
       </c>
       <c r="G15" t="n">
-        <v>-6.185775406680775</v>
+        <v>-6.126493459413439</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>-5.260797074223661</v>
       </c>
       <c r="E16" t="n">
-        <v>-23.29528117545355</v>
+        <v>-23.285069179237</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1541591521222324</v>
+        <v>0.1126172752054356</v>
       </c>
       <c r="G16" t="n">
-        <v>-5.745625277444786</v>
+        <v>-5.682009777936838</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>-5.065449984984816</v>
       </c>
       <c r="E17" t="n">
-        <v>-24.00045879111459</v>
+        <v>-23.99244630177546</v>
       </c>
       <c r="F17" t="n">
-        <v>0.2997455597222263</v>
+        <v>0.2563707604075878</v>
       </c>
       <c r="G17" t="n">
-        <v>-5.520686422321091</v>
+        <v>-5.455761692528971</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>-5.022521451737437</v>
       </c>
       <c r="E18" t="n">
-        <v>-24.94125858101819</v>
+        <v>-24.93666318272074</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5341370574976481</v>
+        <v>0.4859573830400961</v>
       </c>
       <c r="G18" t="n">
-        <v>-4.986507374075825</v>
+        <v>-4.920142490971116</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-5.138668900685194</v>
       </c>
       <c r="E19" t="n">
-        <v>-25.7933318345634</v>
+        <v>-25.7900063896416</v>
       </c>
       <c r="F19" t="n">
-        <v>0.607074276628904</v>
+        <v>0.5567736491109925</v>
       </c>
       <c r="G19" t="n">
-        <v>-4.802324857698422</v>
+        <v>-4.732150114466771</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-5.395518946287264</v>
       </c>
       <c r="E20" t="n">
-        <v>-26.54104634215722</v>
+        <v>-26.53955381963326</v>
       </c>
       <c r="F20" t="n">
-        <v>0.7610004811390774</v>
+        <v>0.7122840222650146</v>
       </c>
       <c r="G20" t="n">
-        <v>-4.477845224069084</v>
+        <v>-4.405981573770849</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-5.75959488228555</v>
       </c>
       <c r="E21" t="n">
-        <v>-27.16829857130432</v>
+        <v>-27.16498621868536</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9810297226971256</v>
+        <v>0.930113756945653</v>
       </c>
       <c r="G21" t="n">
-        <v>-4.174378736500715</v>
+        <v>-4.099765702605718</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-6.193105316162884</v>
       </c>
       <c r="E22" t="n">
-        <v>-27.7793556218362</v>
+        <v>-27.77851771445433</v>
       </c>
       <c r="F22" t="n">
-        <v>1.053338511291979</v>
+        <v>0.9990709160130242</v>
       </c>
       <c r="G22" t="n">
-        <v>-3.602925902065056</v>
+        <v>-3.534073481420418</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-6.654823775217673</v>
       </c>
       <c r="E23" t="n">
-        <v>-28.18977313131863</v>
+        <v>-28.18858173176003</v>
       </c>
       <c r="F23" t="n">
-        <v>1.206636285265749</v>
+        <v>1.149985890869601</v>
       </c>
       <c r="G23" t="n">
-        <v>-3.536207526783619</v>
+        <v>-3.462458584876177</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-7.113279031822795</v>
       </c>
       <c r="E24" t="n">
-        <v>-28.51387308816555</v>
+        <v>-28.51471099554742</v>
       </c>
       <c r="F24" t="n">
-        <v>1.105144753636689</v>
+        <v>1.04925371280536</v>
       </c>
       <c r="G24" t="n">
-        <v>-3.330108495449168</v>
+        <v>-3.261622659284099</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>-7.542585833324362</v>
       </c>
       <c r="E25" t="n">
-        <v>-28.77594171414838</v>
+        <v>-28.77501216064662</v>
       </c>
       <c r="F25" t="n">
-        <v>1.412211624486532</v>
+        <v>1.357014475705815</v>
       </c>
       <c r="G25" t="n">
-        <v>-3.140165365821406</v>
+        <v>-3.075397743663387</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>-7.919205066641738</v>
       </c>
       <c r="E26" t="n">
-        <v>-28.76383133401979</v>
+        <v>-28.76053207370368</v>
       </c>
       <c r="F26" t="n">
-        <v>1.329415901315456</v>
+        <v>1.275030475310926</v>
       </c>
       <c r="G26" t="n">
-        <v>-3.293986831908846</v>
+        <v>-3.232164977890215</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>-8.226834446883643</v>
       </c>
       <c r="E27" t="n">
-        <v>-28.92037599909831</v>
+        <v>-28.91614718528043</v>
       </c>
       <c r="F27" t="n">
-        <v>1.227374492967043</v>
+        <v>1.170239683365751</v>
       </c>
       <c r="G27" t="n">
-        <v>-3.022727409331123</v>
+        <v>-2.96369421581778</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>-8.452018832986784</v>
       </c>
       <c r="E28" t="n">
-        <v>-28.75947159717349</v>
+        <v>-28.75778269010691</v>
       </c>
       <c r="F28" t="n">
-        <v>1.474138216927896</v>
+        <v>1.420224113825668</v>
       </c>
       <c r="G28" t="n">
-        <v>-3.138345535726406</v>
+        <v>-3.085190786188998</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>-8.585132952979832</v>
       </c>
       <c r="E29" t="n">
-        <v>-28.78727964840932</v>
+        <v>-28.78925658613842</v>
       </c>
       <c r="F29" t="n">
-        <v>1.32883983999042</v>
+        <v>1.276365890200782</v>
       </c>
       <c r="G29" t="n">
-        <v>-3.095376597799861</v>
+        <v>-3.04211710983972</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>-8.620409709517446</v>
       </c>
       <c r="E30" t="n">
-        <v>-28.57399294281476</v>
+        <v>-28.57132211303505</v>
       </c>
       <c r="F30" t="n">
-        <v>1.357040660311498</v>
+        <v>1.30183041922794</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.069558576595977</v>
+        <v>-3.016613303904037</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>-8.553689800468302</v>
       </c>
       <c r="E31" t="n">
-        <v>-28.18716776305312</v>
+        <v>-28.1883853472174</v>
       </c>
       <c r="F31" t="n">
-        <v>1.253847129313014</v>
+        <v>1.200692379775606</v>
       </c>
       <c r="G31" t="n">
-        <v>-3.433485318687437</v>
+        <v>-3.384520106059381</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>-8.383075967013568</v>
       </c>
       <c r="E32" t="n">
-        <v>-28.14156727225539</v>
+        <v>-28.14565207074201</v>
       </c>
       <c r="F32" t="n">
-        <v>1.25571932861938</v>
+        <v>1.204096378514455</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.666240278607643</v>
+        <v>-3.617314342888112</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>-8.112463908777276</v>
       </c>
       <c r="E33" t="n">
-        <v>-27.57375409800973</v>
+        <v>-27.57935760362599</v>
       </c>
       <c r="F33" t="n">
-        <v>1.194538997439994</v>
+        <v>1.144395477556184</v>
       </c>
       <c r="G33" t="n">
-        <v>-4.0077006290227</v>
+        <v>-3.963239168572199</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>-7.748027528762189</v>
       </c>
       <c r="E34" t="n">
-        <v>-26.96741027650087</v>
+        <v>-26.97038222924594</v>
       </c>
       <c r="F34" t="n">
-        <v>1.281236226857905</v>
+        <v>1.231642583693446</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.963029691726731</v>
+        <v>-3.920911753484898</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>-7.298801260332051</v>
       </c>
       <c r="E35" t="n">
-        <v>-26.7006546061007</v>
+        <v>-26.70064151379786</v>
       </c>
       <c r="F35" t="n">
-        <v>1.085336099437157</v>
+        <v>1.035781733181224</v>
       </c>
       <c r="G35" t="n">
-        <v>-4.262162627054488</v>
+        <v>-4.219193689127944</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-6.782274879523429</v>
       </c>
       <c r="E36" t="n">
-        <v>-25.80812613677455</v>
+        <v>-25.80849272125412</v>
       </c>
       <c r="F36" t="n">
-        <v>1.022715614945181</v>
+        <v>0.975517863200759</v>
       </c>
       <c r="G36" t="n">
-        <v>-4.418668015224481</v>
+        <v>-4.372242709347721</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-6.215926591707785</v>
       </c>
       <c r="E37" t="n">
-        <v>-25.21840953987468</v>
+        <v>-25.21165391160836</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9319074024349695</v>
+        <v>0.8864902038770217</v>
       </c>
       <c r="G37" t="n">
-        <v>-4.646343161642098</v>
+        <v>-4.598988302263575</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-5.619016381010447</v>
       </c>
       <c r="E38" t="n">
-        <v>-24.81000824502988</v>
+        <v>-24.80648641556546</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9079615805374525</v>
+        <v>0.8610911363640732</v>
       </c>
       <c r="G38" t="n">
-        <v>-4.797533074858351</v>
+        <v>-4.750623353776446</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-5.015328419944086</v>
       </c>
       <c r="E39" t="n">
-        <v>-24.24186776321318</v>
+        <v>-24.231708136208</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8669433957343247</v>
+        <v>0.8241315654418805</v>
       </c>
       <c r="G39" t="n">
-        <v>-4.955792831609135</v>
+        <v>-4.9112266327359</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-4.423763473002112</v>
       </c>
       <c r="E40" t="n">
-        <v>-23.78150311838957</v>
+        <v>-23.77058413781957</v>
       </c>
       <c r="F40" t="n">
-        <v>0.8301409324462328</v>
+        <v>0.7851295952763785</v>
       </c>
       <c r="G40" t="n">
-        <v>-5.077014463620677</v>
+        <v>-5.03455612550496</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-3.865429082970554</v>
       </c>
       <c r="E41" t="n">
-        <v>-22.98893438125999</v>
+        <v>-22.97700729337118</v>
       </c>
       <c r="F41" t="n">
-        <v>0.980440569069248</v>
+        <v>0.9386499383984583</v>
       </c>
       <c r="G41" t="n">
-        <v>-5.209678768315888</v>
+        <v>-5.168424922061608</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-3.359273329239377</v>
       </c>
       <c r="E42" t="n">
-        <v>-22.53774744072843</v>
+        <v>-22.52396124583609</v>
       </c>
       <c r="F42" t="n">
-        <v>1.097459571868596</v>
+        <v>1.056729417727986</v>
       </c>
       <c r="G42" t="n">
-        <v>-5.321212096224552</v>
+        <v>-5.282079203030633</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-2.915336484457939</v>
       </c>
       <c r="E43" t="n">
-        <v>-21.69605638333671</v>
+        <v>-21.68115734270282</v>
       </c>
       <c r="F43" t="n">
-        <v>1.284365287237077</v>
+        <v>1.243726779216359</v>
       </c>
       <c r="G43" t="n">
-        <v>-5.315215821523041</v>
+        <v>-5.27713031255646</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-2.546238093250507</v>
       </c>
       <c r="E44" t="n">
-        <v>-21.364245060116</v>
+        <v>-21.3446982519733</v>
       </c>
       <c r="F44" t="n">
-        <v>1.257264220354704</v>
+        <v>1.216979204510713</v>
       </c>
       <c r="G44" t="n">
-        <v>-5.529432080619364</v>
+        <v>-5.491215648624364</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-2.255194127330264</v>
       </c>
       <c r="E45" t="n">
-        <v>-20.8196052619002</v>
+        <v>-20.79952166934099</v>
       </c>
       <c r="F45" t="n">
-        <v>1.305993771531608</v>
+        <v>1.264936309819956</v>
       </c>
       <c r="G45" t="n">
-        <v>-5.668747275158171</v>
+        <v>-5.631473488967776</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-2.040731700410457</v>
       </c>
       <c r="E46" t="n">
-        <v>-20.26498912891899</v>
+        <v>-20.24554705919903</v>
       </c>
       <c r="F46" t="n">
-        <v>1.473221755728976</v>
+        <v>1.431745340326387</v>
       </c>
       <c r="G46" t="n">
-        <v>-5.580125477222526</v>
+        <v>-5.542498198855406</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-1.902552963021857</v>
       </c>
       <c r="E47" t="n">
-        <v>-19.68752692747898</v>
+        <v>-19.6629003058337</v>
       </c>
       <c r="F47" t="n">
-        <v>1.367854902458764</v>
+        <v>1.326535594690277</v>
       </c>
       <c r="G47" t="n">
-        <v>-5.968233702662654</v>
+        <v>-5.930907547260893</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-1.83546044386302</v>
       </c>
       <c r="E48" t="n">
-        <v>-19.15819203128516</v>
+        <v>-19.12914021127937</v>
       </c>
       <c r="F48" t="n">
-        <v>1.376103053249051</v>
+        <v>1.33399820731006</v>
       </c>
       <c r="G48" t="n">
-        <v>-5.982779251119812</v>
+        <v>-5.945544741837943</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-1.835316721568542</v>
       </c>
       <c r="E49" t="n">
-        <v>-18.49663796869274</v>
+        <v>-18.4681360254063</v>
       </c>
       <c r="F49" t="n">
-        <v>1.416558269029985</v>
+        <v>1.376260160883152</v>
       </c>
       <c r="G49" t="n">
-        <v>-6.449074709130727</v>
+        <v>-6.410386954233427</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-1.896610781158828</v>
       </c>
       <c r="E50" t="n">
-        <v>-17.85110888477859</v>
+        <v>-17.81604769776845</v>
       </c>
       <c r="F50" t="n">
-        <v>1.416479715212935</v>
+        <v>1.377019514447972</v>
       </c>
       <c r="G50" t="n">
-        <v>-6.448001140297706</v>
+        <v>-6.408121985841809</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-2.013397892621546</v>
       </c>
       <c r="E51" t="n">
-        <v>-16.96925064226845</v>
+        <v>-16.93255291740309</v>
       </c>
       <c r="F51" t="n">
-        <v>1.44996982588207</v>
+        <v>1.409776456157971</v>
       </c>
       <c r="G51" t="n">
-        <v>-6.77502068067834</v>
+        <v>-6.730598497136363</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-2.182698467715688</v>
       </c>
       <c r="E52" t="n">
-        <v>-16.57161122035955</v>
+        <v>-16.53126074300135</v>
       </c>
       <c r="F52" t="n">
-        <v>1.352536908133945</v>
+        <v>1.314150276202004</v>
       </c>
       <c r="G52" t="n">
-        <v>-6.688690035739998</v>
+        <v>-6.643168098759316</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-2.399158862163443</v>
       </c>
       <c r="E53" t="n">
-        <v>-15.95697997115187</v>
+        <v>-15.91175915713655</v>
       </c>
       <c r="F53" t="n">
-        <v>1.507104635483363</v>
+        <v>1.469817756990127</v>
       </c>
       <c r="G53" t="n">
-        <v>-6.803116762576684</v>
+        <v>-6.759270640359743</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-2.663304641488482</v>
       </c>
       <c r="E54" t="n">
-        <v>-15.59153452193078</v>
+        <v>-15.54467717006024</v>
       </c>
       <c r="F54" t="n">
-        <v>1.254462467546575</v>
+        <v>1.218144419463626</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.171586533754223</v>
+        <v>-7.126221704407642</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-2.975025290229867</v>
       </c>
       <c r="E55" t="n">
-        <v>-14.94299420836303</v>
+        <v>-14.891462904378</v>
       </c>
       <c r="F55" t="n">
-        <v>1.31692584440445</v>
+        <v>1.278185720295782</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.420183180112917</v>
+        <v>-7.379623225909249</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-3.332318903627543</v>
       </c>
       <c r="E56" t="n">
-        <v>-14.5757812982583</v>
+        <v>-14.52546757843755</v>
       </c>
       <c r="F56" t="n">
-        <v>1.215630697318015</v>
+        <v>1.182101309740355</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.680261776063805</v>
+        <v>-7.641521651955138</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-3.73592668776038</v>
       </c>
       <c r="E57" t="n">
-        <v>-13.86650579180779</v>
+        <v>-13.81412348813804</v>
       </c>
       <c r="F57" t="n">
-        <v>1.151570059513449</v>
+        <v>1.11971648669953</v>
       </c>
       <c r="G57" t="n">
-        <v>-8.064913633553717</v>
+        <v>-8.031070030707856</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-4.178616188937597</v>
       </c>
       <c r="E58" t="n">
-        <v>-13.60645338046258</v>
+        <v>-13.54887343256467</v>
       </c>
       <c r="F58" t="n">
-        <v>1.022859630276441</v>
+        <v>0.9907703960113698</v>
       </c>
       <c r="G58" t="n">
-        <v>-8.042695995631307</v>
+        <v>-8.004806871207352</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-4.651439090401349</v>
       </c>
       <c r="E59" t="n">
-        <v>-13.06540087322541</v>
+        <v>-13.00587017220409</v>
       </c>
       <c r="F59" t="n">
-        <v>1.071864119813021</v>
+        <v>1.038688224412087</v>
       </c>
       <c r="G59" t="n">
-        <v>-8.270423511260292</v>
+        <v>-8.233882894029033</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-5.1436538337871</v>
       </c>
       <c r="E60" t="n">
-        <v>-12.91734002038833</v>
+        <v>-12.85879124208013</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9802179999209386</v>
+        <v>0.9486917346780622</v>
       </c>
       <c r="G60" t="n">
-        <v>-8.157214368587885</v>
+        <v>-8.119482351798032</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-5.637692344872434</v>
       </c>
       <c r="E61" t="n">
-        <v>-12.51020867891918</v>
+        <v>-12.44661936401691</v>
       </c>
       <c r="F61" t="n">
-        <v>0.903065059274647</v>
+        <v>0.8726516397733173</v>
       </c>
       <c r="G61" t="n">
-        <v>-8.488357984363663</v>
+        <v>-8.458468256976003</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-6.118445473510627</v>
       </c>
       <c r="E62" t="n">
-        <v>-12.14706747499822</v>
+        <v>-12.08025745359689</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9248899281118043</v>
+        <v>0.895078754541194</v>
       </c>
       <c r="G62" t="n">
-        <v>-8.72680809602002</v>
+        <v>-8.690267478788762</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-6.567235626982425</v>
       </c>
       <c r="E63" t="n">
-        <v>-11.71224591301882</v>
+        <v>-11.6464439989363</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9156205776998623</v>
+        <v>0.8886897107544317</v>
       </c>
       <c r="G63" t="n">
-        <v>-8.698240691219373</v>
+        <v>-8.661922643136426</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-6.961585648242317</v>
       </c>
       <c r="E64" t="n">
-        <v>-11.41315225459958</v>
+        <v>-11.34299060367077</v>
       </c>
       <c r="F64" t="n">
-        <v>0.8441496964868797</v>
+        <v>0.81631546064537</v>
       </c>
       <c r="G64" t="n">
-        <v>-8.857600201408864</v>
+        <v>-8.820915568846347</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-7.287307849448347</v>
       </c>
       <c r="E65" t="n">
-        <v>-11.14267837019236</v>
+        <v>-11.07153479655043</v>
       </c>
       <c r="F65" t="n">
-        <v>0.8689988872804757</v>
+        <v>0.8441235118811962</v>
       </c>
       <c r="G65" t="n">
-        <v>-9.043484717155691</v>
+        <v>-9.005137362132274</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-7.532500424222736</v>
       </c>
       <c r="E66" t="n">
-        <v>-10.90761916497202</v>
+        <v>-10.83544129940558</v>
       </c>
       <c r="F66" t="n">
-        <v>0.6609098259140815</v>
+        <v>0.6340182358771762</v>
       </c>
       <c r="G66" t="n">
-        <v>-9.004456562384505</v>
+        <v>-8.964407207991664</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-7.690877618461363</v>
       </c>
       <c r="E67" t="n">
-        <v>-10.71349959073774</v>
+        <v>-10.64113843293152</v>
       </c>
       <c r="F67" t="n">
-        <v>0.6360606351204855</v>
+        <v>0.6116303980178247</v>
       </c>
       <c r="G67" t="n">
-        <v>-9.096992958869825</v>
+        <v>-9.058684880754933</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-7.762945540988035</v>
       </c>
       <c r="E68" t="n">
-        <v>-10.53878280931491</v>
+        <v>-10.46325331422099</v>
       </c>
       <c r="F68" t="n">
-        <v>0.5946365889292642</v>
+        <v>0.5719999973159199</v>
       </c>
       <c r="G68" t="n">
-        <v>-8.98909929115116</v>
+        <v>-8.947125368240586</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-7.752790780737376</v>
       </c>
       <c r="E69" t="n">
-        <v>-10.38348191300635</v>
+        <v>-10.30960204807049</v>
       </c>
       <c r="F69" t="n">
-        <v>0.3532145245278355</v>
+        <v>0.3289937642706423</v>
       </c>
       <c r="G69" t="n">
-        <v>-8.957965794993536</v>
+        <v>-8.91749748690976</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-7.669530451818231</v>
       </c>
       <c r="E70" t="n">
-        <v>-10.27818052125035</v>
+        <v>-10.20351511814399</v>
       </c>
       <c r="F70" t="n">
-        <v>0.4744230642365355</v>
+        <v>0.4489454429065365</v>
       </c>
       <c r="G70" t="n">
-        <v>-8.867065936363431</v>
+        <v>-8.824738521276132</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-7.524879278016648</v>
       </c>
       <c r="E71" t="n">
-        <v>-10.12380917844356</v>
+        <v>-10.04916995994288</v>
       </c>
       <c r="F71" t="n">
-        <v>0.389611126427834</v>
+        <v>0.3636490898926912</v>
       </c>
       <c r="G71" t="n">
-        <v>-8.553623114029667</v>
+        <v>-8.515354312823302</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-7.329072372646122</v>
       </c>
       <c r="E72" t="n">
-        <v>-10.09639389629298</v>
+        <v>-10.02556453791925</v>
       </c>
       <c r="F72" t="n">
-        <v>0.370732025730065</v>
+        <v>0.3414445442731238</v>
       </c>
       <c r="G72" t="n">
-        <v>-8.371430627684207</v>
+        <v>-8.329011566477016</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-7.090518094519405</v>
       </c>
       <c r="E73" t="n">
-        <v>-10.11129293692687</v>
+        <v>-10.03984824031957</v>
       </c>
       <c r="F73" t="n">
-        <v>0.2227759113157187</v>
+        <v>0.1951511523196767</v>
       </c>
       <c r="G73" t="n">
-        <v>-8.290323811579714</v>
+        <v>-8.24539102822691</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-6.819650681204906</v>
       </c>
       <c r="E74" t="n">
-        <v>-10.24923343966729</v>
+        <v>-10.17913725025269</v>
       </c>
       <c r="F74" t="n">
-        <v>0.3307743174571171</v>
+        <v>0.3029138970099239</v>
       </c>
       <c r="G74" t="n">
-        <v>-8.077272767436307</v>
+        <v>-8.034251460298394</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-6.523947600701374</v>
       </c>
       <c r="E75" t="n">
-        <v>-10.32569248826298</v>
+        <v>-10.25613308326488</v>
       </c>
       <c r="F75" t="n">
-        <v>0.08842269955392579</v>
+        <v>0.05670004976842352</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.886282253581206</v>
+        <v>-7.843143115717719</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-6.210314790696313</v>
       </c>
       <c r="E76" t="n">
-        <v>-10.70042038019886</v>
+        <v>-10.63222257469631</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1942085065150724</v>
+        <v>0.1620276261301097</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.635800315613303</v>
+        <v>-7.591221024437226</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-5.888574675091805</v>
       </c>
       <c r="E77" t="n">
-        <v>-11.04186763831107</v>
+        <v>-10.9704622186123</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1025231097144648</v>
+        <v>0.07021130630108482</v>
       </c>
       <c r="G77" t="n">
-        <v>-7.50978690076169</v>
+        <v>-7.47125625349849</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-5.565065076491768</v>
       </c>
       <c r="E78" t="n">
-        <v>-11.60101370807551</v>
+        <v>-11.52750042761922</v>
       </c>
       <c r="F78" t="n">
-        <v>0.04055724036457528</v>
+        <v>0.007381344963641422</v>
       </c>
       <c r="G78" t="n">
-        <v>-7.25029745843868</v>
+        <v>-7.211020549913501</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-5.246777075004581</v>
       </c>
       <c r="E79" t="n">
-        <v>-12.0399724377529</v>
+        <v>-11.96895978713938</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.03668734640160852</v>
+        <v>-0.06867184224394531</v>
       </c>
       <c r="G79" t="n">
-        <v>-7.201135861267998</v>
+        <v>-7.161439999051884</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-4.941737952084956</v>
       </c>
       <c r="E80" t="n">
-        <v>-12.53233467072169</v>
+        <v>-12.45975094376717</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1011091410075583</v>
+        <v>0.06047063298684063</v>
       </c>
       <c r="G80" t="n">
-        <v>-6.85147972927402</v>
+        <v>-6.808078745353698</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-4.65336485300933</v>
       </c>
       <c r="E81" t="n">
-        <v>-13.38618847745339</v>
+        <v>-13.3132119814136</v>
       </c>
       <c r="F81" t="n">
-        <v>-0.02328082829168103</v>
+        <v>-0.06137942956110388</v>
       </c>
       <c r="G81" t="n">
-        <v>-6.85717488101017</v>
+        <v>-6.815358065733697</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-4.386841943043966</v>
       </c>
       <c r="E82" t="n">
-        <v>-14.05575502938494</v>
+        <v>-13.98394374829807</v>
       </c>
       <c r="F82" t="n">
-        <v>0.02607715342162625</v>
+        <v>-0.01477083144455908</v>
       </c>
       <c r="G82" t="n">
-        <v>-6.66966691971097</v>
+        <v>-6.625009074717842</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-4.144442930983283</v>
       </c>
       <c r="E83" t="n">
-        <v>-14.78246948322063</v>
+        <v>-14.70587951159653</v>
       </c>
       <c r="F83" t="n">
-        <v>-0.1418185382206688</v>
+        <v>-0.1862799986711706</v>
       </c>
       <c r="G83" t="n">
-        <v>-6.376163674605155</v>
+        <v>-6.330445353081847</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-3.925232461555051</v>
       </c>
       <c r="E84" t="n">
-        <v>-15.91004406546429</v>
+        <v>-15.8361249236199</v>
       </c>
       <c r="F84" t="n">
-        <v>-0.1584588551325027</v>
+        <v>-0.2031167001256303</v>
       </c>
       <c r="G84" t="n">
-        <v>-6.202690661952285</v>
+        <v>-6.15980027784279</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-3.733389421628024</v>
       </c>
       <c r="E85" t="n">
-        <v>-16.73584106720616</v>
+        <v>-16.66265509432091</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.1397630466745179</v>
+        <v>-0.1877201519837604</v>
       </c>
       <c r="G85" t="n">
-        <v>-5.910457370222117</v>
+        <v>-5.864084433556723</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-3.569326706047439</v>
       </c>
       <c r="E86" t="n">
-        <v>-17.72619522336569</v>
+        <v>-17.65069191287745</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.2302046747051615</v>
+        <v>-0.2811206404566342</v>
       </c>
       <c r="G86" t="n">
-        <v>-5.608208466818029</v>
+        <v>-5.56263416062598</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-3.434843622366052</v>
       </c>
       <c r="E87" t="n">
-        <v>-18.76105011688424</v>
+        <v>-18.6864239906864</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.2218125085836151</v>
+        <v>-0.2758444424114186</v>
       </c>
       <c r="G87" t="n">
-        <v>-5.156798957138156</v>
+        <v>-5.106367406591827</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-3.333718464236825</v>
       </c>
       <c r="E88" t="n">
-        <v>-20.06559335663951</v>
+        <v>-19.99116361498429</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.07787573114167873</v>
+        <v>-0.1296034196693384</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.970613318425969</v>
+        <v>-4.920312690908058</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-3.26815475178495</v>
       </c>
       <c r="E89" t="n">
-        <v>-21.59826997341185</v>
+        <v>-21.52048860222916</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.2863444692904829</v>
+        <v>-0.3394206650108404</v>
       </c>
       <c r="G89" t="n">
-        <v>-4.630213444541091</v>
+        <v>-4.580894739736309</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-3.243315873823972</v>
       </c>
       <c r="E90" t="n">
-        <v>-23.10438230771834</v>
+        <v>-23.02597250599924</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.4589402976529577</v>
+        <v>-0.5121736010074158</v>
       </c>
       <c r="G90" t="n">
-        <v>-4.37086801754934</v>
+        <v>-4.322282481703694</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-3.262948495529984</v>
       </c>
       <c r="E91" t="n">
-        <v>-24.57107371816838</v>
+        <v>-24.49284720868907</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.4958213147581</v>
+        <v>-0.5494997564091769</v>
       </c>
       <c r="G91" t="n">
-        <v>-4.397615592254986</v>
+        <v>-4.348768210352507</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-3.332436792993962</v>
       </c>
       <c r="E92" t="n">
-        <v>-26.21126432587698</v>
+        <v>-26.12842932579738</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.6626827144758988</v>
+        <v>-0.716727740606544</v>
       </c>
       <c r="G92" t="n">
-        <v>-4.149032038199134</v>
+        <v>-4.103012593710466</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-3.459219354209029</v>
       </c>
       <c r="E93" t="n">
-        <v>-28.20274760343478</v>
+        <v>-28.12202046411269</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.6321383719461519</v>
+        <v>-0.6852669368778762</v>
       </c>
       <c r="G93" t="n">
-        <v>-4.136646719710861</v>
+        <v>-4.088912183549927</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-3.646697583607462</v>
       </c>
       <c r="E94" t="n">
-        <v>-30.32910778486803</v>
+        <v>-30.24662627696516</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.5911725563543909</v>
+        <v>-0.6413684454495687</v>
       </c>
       <c r="G94" t="n">
-        <v>-4.208693662248879</v>
+        <v>-4.160658003122586</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-3.901909956008506</v>
       </c>
       <c r="E95" t="n">
-        <v>-32.52674246297165</v>
+        <v>-32.44292554017891</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.984465333719842</v>
+        <v>-1.036611975938437</v>
       </c>
       <c r="G95" t="n">
-        <v>-4.407500280900489</v>
+        <v>-4.3638898201347</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-4.239264343678838</v>
       </c>
       <c r="E96" t="n">
-        <v>-34.66348484055839</v>
+        <v>-34.58211617839707</v>
       </c>
       <c r="F96" t="n">
-        <v>-1.05111824748707</v>
+        <v>-1.096797292101852</v>
       </c>
       <c r="G96" t="n">
-        <v>-4.590975812924438</v>
+        <v>-4.551279950708325</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-4.654761595370514</v>
       </c>
       <c r="E97" t="n">
-        <v>-36.95383920738711</v>
+        <v>-36.87299423733945</v>
       </c>
       <c r="F97" t="n">
-        <v>-1.323660715743281</v>
+        <v>-1.367467561051696</v>
       </c>
       <c r="G97" t="n">
-        <v>-4.722422533455369</v>
+        <v>-4.677974165307709</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-5.175410193403211</v>
       </c>
       <c r="E98" t="n">
-        <v>-39.41839975582783</v>
+        <v>-39.33848433928193</v>
       </c>
       <c r="F98" t="n">
-        <v>-1.651701455745569</v>
+        <v>-1.697773269445603</v>
       </c>
       <c r="G98" t="n">
-        <v>-5.038915862351255</v>
+        <v>-4.999128354015249</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-5.770386136351641</v>
       </c>
       <c r="E99" t="n">
-        <v>-41.79673439775295</v>
+        <v>-41.71540501250014</v>
       </c>
       <c r="F99" t="n">
-        <v>-1.520621319694208</v>
+        <v>-1.563577165317911</v>
       </c>
       <c r="G99" t="n">
-        <v>-5.369535786013363</v>
+        <v>-5.326723955720919</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-6.481199396213865</v>
       </c>
       <c r="E100" t="n">
-        <v>-44.32837990595468</v>
+        <v>-44.24631735174273</v>
       </c>
       <c r="F100" t="n">
-        <v>-1.687535088623374</v>
+        <v>-1.731773979925566</v>
       </c>
       <c r="G100" t="n">
-        <v>-5.578855523846879</v>
+        <v>-5.537968262072169</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-7.217894538664873</v>
       </c>
       <c r="E101" t="n">
-        <v>-46.79800717559515</v>
+        <v>-46.71700509791339</v>
       </c>
       <c r="F101" t="n">
-        <v>-1.899656579265019</v>
+        <v>-1.946932884826492</v>
       </c>
       <c r="G101" t="n">
-        <v>-5.987427018628624</v>
+        <v>-5.947600233384094</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-8.082317993963237</v>
       </c>
       <c r="E102" t="n">
-        <v>-49.15196394962897</v>
+        <v>-49.07092259503868</v>
       </c>
       <c r="F102" t="n">
-        <v>-1.9946281440789</v>
+        <v>-2.042506695571093</v>
       </c>
       <c r="G102" t="n">
-        <v>-6.28874636853095</v>
+        <v>-6.250844151804153</v>
       </c>
     </row>
   </sheetData>
